--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,96 +40,99 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>guilty</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>frightening</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
@@ -145,15 +148,21 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
@@ -163,25 +172,19 @@
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>powerful</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>really</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>positive</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -664,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -711,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6">
+        <v>0.86</v>
+      </c>
+      <c r="L6">
         <v>43</v>
       </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>27</v>
-      </c>
       <c r="M6">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,10 +817,10 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,10 +867,10 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.7543859649122807</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,16 +935,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8787878787878788</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8421052631578947</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>0.5</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.4827586206896552</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,13 +1164,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,13 +1182,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.3684210526315789</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L14">
         <v>7</v>
@@ -1203,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.1666666666666667</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L15">
         <v>8</v>
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,16 +1285,16 @@
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.1355932203389831</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1311,13 +1314,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5454545454545454</v>
+        <v>0.625</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1329,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.06466302367941712</v>
+        <v>0.0692167577413479</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1361,13 +1364,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1382,16 +1385,16 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.06315789473684211</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>89</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1429,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1437,13 +1440,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4927536231884058</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C20">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1463,13 +1466,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4782608695652174</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1481,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1489,13 +1492,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4705882352941176</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1507,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1515,13 +1518,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4615384615384616</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1541,25 +1544,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.45</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>9</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1567,13 +1570,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.45</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1593,13 +1596,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4285714285714285</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1611,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1619,13 +1622,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1637,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1645,13 +1648,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.375</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1663,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1671,13 +1674,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3617021276595745</v>
+        <v>0.375</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1689,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1697,13 +1700,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3142857142857143</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1715,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1723,13 +1726,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3076923076923077</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1741,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1749,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2916666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1767,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1775,13 +1778,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1793,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1801,13 +1804,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.08974358974358974</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1819,7 +1822,33 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>71</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
